--- a/data/output/results/winner_metrics_class.xlsx
+++ b/data/output/results/winner_metrics_class.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,240 +517,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/output/results/winner_metrics_class.xlsx
+++ b/data/output/results/winner_metrics_class.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,32 +491,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>lrm</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7775061300593065</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7867803837953091</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7804917602179842</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 1, 1, 0, 0, 1, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 1, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 1, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 1, 0, 1, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 1, 1, 0, 0, 0, 0, 1, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 0, 0, 1, 1, 0, 0, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 1, 1, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 1, 0, 1, 0, 1, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 1, 1, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 1, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 0, 0, 0, 0, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 1, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 1, 1, 0, 0, 1, 0, 0, 0, 0, 1, 0, 1, 0, 0, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0, 0, 0, 1, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
